--- a/論文/figures/Tables.xlsx
+++ b/論文/figures/Tables.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshida\Desktop\suction\論文\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gedo2\Desktop\suction\論文\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1BE5DB-116D-4070-8272-0166F3C93ED5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1395" windowWidth="18180" windowHeight="13665" xr2:uid="{75A8F3D1-FA73-47BB-9E06-25D7EAE8C781}"/>
+    <workbookView xWindow="300" yWindow="1395" windowWidth="18180" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,20 +56,87 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>1.8×10</t>
+    <t>50 N/m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Physical properties</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculation conditions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>250 μm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number of particles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grid size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5 mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calculation time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.24 s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Solid phase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Particle diameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1 kg/m</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.8×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Pa</t>
     </r>
     <r>
       <rPr>
@@ -79,98 +145,42 @@
         <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Pa・s</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1 kg/m</t>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1500 kg/m</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1500 kg/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50 N/m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Physical properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Calculation conditions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>250 μm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Number of particles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Grid size</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.5 mm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Calculation time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.24 s</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Solid phase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Particle diameter</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +197,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,26 +259,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC31A4A-621E-4729-BF68-A2ADD4DB129D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -588,112 +615,112 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="21" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="3:4" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
+    <row r="20" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
+      <c r="D20" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
